--- a/tests/test_project_data/treatment_information.xlsx
+++ b/tests/test_project_data/treatment_information.xlsx
@@ -434,61 +434,70 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>group_id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>group_id</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>color</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>independant_variables</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>independant_variables</t>
+          <t>label</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vehicles</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>vehicles</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>5</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MDL</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MDL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>pink</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -498,20 +507,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TCB2</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>TCB2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>orange</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -521,25 +532,27 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TCB2+MDL</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TCB2, MDL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>TCB2+MDL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TCB2, MDL</t>
         </is>
       </c>
     </row>
